--- a/excel.xlsx
+++ b/excel.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4A2C072-89AD-48F9-B522-7CF444F66E87}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB65B79E-6B56-4B32-89F4-931DCBC55CC0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,9 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t xml:space="preserve">muhammad jamil </t>
+  </si>
+  <si>
+    <t xml:space="preserve">father name mhammad bachoo </t>
   </si>
 </sst>
 </file>
@@ -340,10 +343,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="H5"/>
+  <dimension ref="H5:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -353,6 +356,11 @@
         <v>0</v>
       </c>
     </row>
+    <row r="7" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H7" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
